--- a/addons/downloads/Tableau_de_synthese.xlsx
+++ b/addons/downloads/Tableau_de_synthese.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6199936f6423fa6c/Documents/Administratif/Scolaire/IPSSI/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Projets Code\Portfolio\addons\downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="68" documentId="8_{D534E9A1-0C36-4D71-A77A-74CBCCB30043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F5767E22-B58F-47D3-B430-4658376D819B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{060A3A66-1F49-43DA-8EAA-2740808FC401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tableau de synthèse Épreuve E4" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>BTS SERVICES INFORMATIQUES AUX ORGANISATIONS</t>
   </si>
@@ -178,6 +178,9 @@
   </si>
   <si>
     <t>Projet RespireStat - Élaboration d'une interface de statistiques liées à l'écologie.</t>
+  </si>
+  <si>
+    <t>Création d'applications - Gestion de tickets - Mise en production d'applications</t>
   </si>
 </sst>
 </file>
@@ -729,15 +732,39 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -769,30 +796,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1207,70 +1210,70 @@
   </sheetPr>
   <dimension ref="A1:AQ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.86328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="70.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.5703125" style="1" customWidth="1"/>
-    <col min="3" max="8" width="18.7109375" style="1" customWidth="1"/>
-    <col min="9" max="43" width="11.42578125" customWidth="1"/>
-    <col min="44" max="16384" width="10.85546875" style="1"/>
+    <col min="1" max="1" width="70.3984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.59765625" style="1" customWidth="1"/>
+    <col min="3" max="8" width="18.73046875" style="1" customWidth="1"/>
+    <col min="9" max="43" width="11.3984375" customWidth="1"/>
+    <col min="44" max="16384" width="10.86328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="25"/>
-    </row>
-    <row r="2" spans="1:43" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="H1" s="23"/>
+    </row>
+    <row r="2" spans="1:43" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-    </row>
-    <row r="3" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="37" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+    </row>
+    <row r="3" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="43" t="s">
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="38"/>
-      <c r="H3" s="44"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="31"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="40" t="s">
+    <row r="4" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="42"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="29"/>
       <c r="F4" s="12" t="s">
         <v>4</v>
       </c>
@@ -1281,23 +1284,23 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:43" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
+    <row r="5" spans="1:43" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="36"/>
-    </row>
-    <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="23" t="s">
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="44"/>
+    </row>
+    <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="40" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -1319,9 +1322,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:43" s="2" customFormat="1" ht="324.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="24"/>
-      <c r="B7" s="33"/>
+    <row r="7" spans="1:43" s="2" customFormat="1" ht="324.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="33"/>
+      <c r="B7" s="41"/>
       <c r="C7" s="19" t="s">
         <v>16</v>
       </c>
@@ -1376,17 +1379,17 @@
       <c r="AP7"/>
       <c r="AQ7"/>
     </row>
-    <row r="8" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="26" t="s">
+    <row r="8" spans="1:43" s="2" customFormat="1" ht="17.649999999999999" x14ac:dyDescent="0.35">
+      <c r="A8" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="28"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="36"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1423,7 +1426,7 @@
       <c r="AP8"/>
       <c r="AQ8"/>
     </row>
-    <row r="9" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>31</v>
       </c>
@@ -1472,7 +1475,7 @@
       <c r="AP9"/>
       <c r="AQ9"/>
     </row>
-    <row r="10" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>30</v>
       </c>
@@ -1521,7 +1524,7 @@
       <c r="AP10"/>
       <c r="AQ10"/>
     </row>
-    <row r="11" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
         <v>37</v>
       </c>
@@ -1569,7 +1572,7 @@
       <c r="AP11"/>
       <c r="AQ11"/>
     </row>
-    <row r="12" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>38</v>
       </c>
@@ -1617,7 +1620,7 @@
       <c r="AP12"/>
       <c r="AQ12"/>
     </row>
-    <row r="13" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
         <v>39</v>
       </c>
@@ -1666,7 +1669,7 @@
       <c r="AP13"/>
       <c r="AQ13"/>
     </row>
-    <row r="14" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="9"/>
       <c r="B14" s="21"/>
       <c r="C14" s="14"/>
@@ -1711,7 +1714,7 @@
       <c r="AP14"/>
       <c r="AQ14"/>
     </row>
-    <row r="15" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="9"/>
       <c r="B15" s="8"/>
       <c r="C15" s="14"/>
@@ -1756,7 +1759,7 @@
       <c r="AP15"/>
       <c r="AQ15"/>
     </row>
-    <row r="16" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="9"/>
       <c r="B16" s="8"/>
       <c r="C16" s="14"/>
@@ -1801,7 +1804,7 @@
       <c r="AP16"/>
       <c r="AQ16"/>
     </row>
-    <row r="17" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="9"/>
       <c r="B17" s="8"/>
       <c r="C17" s="14"/>
@@ -1846,7 +1849,7 @@
       <c r="AP17"/>
       <c r="AQ17"/>
     </row>
-    <row r="18" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="9"/>
       <c r="B18" s="8"/>
       <c r="C18" s="14"/>
@@ -1891,17 +1894,17 @@
       <c r="AP18"/>
       <c r="AQ18"/>
     </row>
-    <row r="19" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A19" s="29" t="s">
+    <row r="19" spans="1:43" s="2" customFormat="1" ht="17.649999999999999" x14ac:dyDescent="0.35">
+      <c r="A19" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="31"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="39"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -1938,7 +1941,7 @@
       <c r="AP19"/>
       <c r="AQ19"/>
     </row>
-    <row r="20" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
         <v>28</v>
       </c>
@@ -1987,7 +1990,7 @@
       <c r="AP20"/>
       <c r="AQ20"/>
     </row>
-    <row r="21" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
         <v>29</v>
       </c>
@@ -2036,7 +2039,7 @@
       <c r="AP21"/>
       <c r="AQ21"/>
     </row>
-    <row r="22" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="9"/>
       <c r="B22" s="8"/>
       <c r="C22" s="14"/>
@@ -2081,7 +2084,7 @@
       <c r="AP22"/>
       <c r="AQ22"/>
     </row>
-    <row r="23" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="9"/>
       <c r="B23" s="8"/>
       <c r="C23" s="14"/>
@@ -2126,7 +2129,7 @@
       <c r="AP23"/>
       <c r="AQ23"/>
     </row>
-    <row r="24" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="9"/>
       <c r="B24" s="8"/>
       <c r="C24" s="14"/>
@@ -2171,7 +2174,7 @@
       <c r="AP24"/>
       <c r="AQ24"/>
     </row>
-    <row r="25" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="9"/>
       <c r="B25" s="8"/>
       <c r="C25" s="14"/>
@@ -2216,7 +2219,7 @@
       <c r="AP25"/>
       <c r="AQ25"/>
     </row>
-    <row r="26" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="9"/>
       <c r="B26" s="8"/>
       <c r="C26" s="14"/>
@@ -2261,17 +2264,17 @@
       <c r="AP26"/>
       <c r="AQ26"/>
     </row>
-    <row r="27" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A27" s="29" t="s">
+    <row r="27" spans="1:43" s="2" customFormat="1" ht="17.649999999999999" x14ac:dyDescent="0.35">
+      <c r="A27" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="31"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="39"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -2308,8 +2311,10 @@
       <c r="AP27"/>
       <c r="AQ27"/>
     </row>
-    <row r="28" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="9"/>
+    <row r="28" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="B28" s="8"/>
       <c r="C28" s="14"/>
       <c r="D28" s="22"/>
@@ -2353,7 +2358,7 @@
       <c r="AP28"/>
       <c r="AQ28"/>
     </row>
-    <row r="29" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="9"/>
       <c r="B29" s="8"/>
       <c r="C29" s="14"/>
@@ -2398,7 +2403,7 @@
       <c r="AP29"/>
       <c r="AQ29"/>
     </row>
-    <row r="30" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="9"/>
       <c r="B30" s="8"/>
       <c r="C30" s="14"/>
@@ -2443,7 +2448,7 @@
       <c r="AP30"/>
       <c r="AQ30"/>
     </row>
-    <row r="31" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="9"/>
       <c r="B31" s="8"/>
       <c r="C31" s="14"/>
@@ -2488,7 +2493,7 @@
       <c r="AP31"/>
       <c r="AQ31"/>
     </row>
-    <row r="32" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="9"/>
       <c r="B32" s="8"/>
       <c r="C32" s="14"/>
@@ -2533,7 +2538,7 @@
       <c r="AP32"/>
       <c r="AQ32"/>
     </row>
-    <row r="33" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="9"/>
       <c r="B33" s="8"/>
       <c r="C33" s="14"/>
@@ -2578,7 +2583,7 @@
       <c r="AP33"/>
       <c r="AQ33"/>
     </row>
-    <row r="34" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="16"/>
@@ -2623,7 +2628,7 @@
       <c r="AP34"/>
       <c r="AQ34"/>
     </row>
-    <row r="35" spans="1:43" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:43" s="2" customFormat="1" ht="13.9" x14ac:dyDescent="0.35">
       <c r="A35" s="5"/>
       <c r="B35" s="3"/>
       <c r="C35" s="4"/>
@@ -2668,59 +2673,54 @@
       <c r="AP35"/>
       <c r="AQ35"/>
     </row>
-    <row r="36" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="37" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="40" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="49" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="50" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="51" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="52" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="53" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="54" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="55" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="56" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="57" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="58" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="59" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="60" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="61" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="62" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="63" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="64" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="65" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="66" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="67" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="68" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="69" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="70" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="71" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="72" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="73" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="74" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="75" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="76" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="77" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="78" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="79" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="80" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="81" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="36" spans="1:43" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="37" spans="1:43" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="38" spans="1:43" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="39" spans="1:43" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="40" spans="1:43" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="41" spans="1:43" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="42" spans="1:43" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="43" spans="1:43" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="44" spans="1:43" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="45" spans="1:43" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="46" spans="1:43" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="47" spans="1:43" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="48" spans="1:43" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="49" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="50" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="51" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="52" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="53" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="54" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="55" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="56" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="57" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="59" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="60" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="61" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="62" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="63" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="64" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="65" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="66" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="67" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="68" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="69" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="70" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="71" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="72" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="73" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="74" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="75" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="76" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="77" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="78" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="79" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="80" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="81" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A8:H8"/>
@@ -2728,6 +2728,11 @@
     <mergeCell ref="A27:H27"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A5:H5"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -2748,17 +2753,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="5f4da1f7-5808-483f-b15f-b2962f27b5ab">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="923d05d6-6373-43a5-b79f-b15157901251" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FD1390579AA2DB42B60BD32A8BA9EE87" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4344fecfac19998175a938913c32235f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5f4da1f7-5808-483f-b15f-b2962f27b5ab" xmlns:ns3="923d05d6-6373-43a5-b79f-b15157901251" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c265a6b55c2259de5a5397ee9c37dec6" ns2:_="" ns3:_="">
     <xsd:import namespace="5f4da1f7-5808-483f-b15f-b2962f27b5ab"/>
@@ -2993,6 +2987,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="5f4da1f7-5808-483f-b15f-b2962f27b5ab">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="923d05d6-6373-43a5-b79f-b15157901251" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4209C33D-ED08-404F-9B7A-29CD40C2ACA2}">
   <ds:schemaRefs>
@@ -3002,17 +3007,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD1FC233-9ECF-4A55-86D4-136E16072842}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="5f4da1f7-5808-483f-b15f-b2962f27b5ab"/>
-    <ds:schemaRef ds:uri="923d05d6-6373-43a5-b79f-b15157901251"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0268EFCC-4BF1-491A-A415-6D95EF8109E2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3029,4 +3023,15 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD1FC233-9ECF-4A55-86D4-136E16072842}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="5f4da1f7-5808-483f-b15f-b2962f27b5ab"/>
+    <ds:schemaRef ds:uri="923d05d6-6373-43a5-b79f-b15157901251"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>